--- a/resources/res.xlsx
+++ b/resources/res.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ragarw5/web/new_blog/mlwhiz/static/CustomHTML/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ragarw5/web/new_blog/mlwhiz/static/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{239C7220-4418-E246-A8C0-C5D2A75E0C72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3EF1AA4-983A-3748-B870-8D492714DFE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18920" xr2:uid="{D6A8AAAB-54D6-474D-8E08-A96467793224}"/>
+    <workbookView xWindow="24560" yWindow="-28340" windowWidth="25600" windowHeight="14160" xr2:uid="{D6A8AAAB-54D6-474D-8E08-A96467793224}"/>
   </bookViews>
   <sheets>
     <sheet name="Books" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="118">
   <si>
     <t>img</t>
   </si>
@@ -378,13 +378,22 @@
   </si>
   <si>
     <t>Master of Data Science, HSE University</t>
+  </si>
+  <si>
+    <t>The first fully online Master of Data Science from a top-10 Russian university, featuring applied projects with industry partners like Yandex.</t>
+  </si>
+  <si>
+    <t>Learn from the #1 public research university in the U.S. and join the next generation of data scientists.</t>
+  </si>
+  <si>
+    <t>One of the world’s first online master’s in machine learning from a world-leading institution.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -435,6 +444,39 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF373A3C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF373A3C"/>
+      <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -491,7 +533,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -505,6 +547,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -822,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865B720B-913D-9D43-BB40-0853C4287A07}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="40.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1123,58 +1170,64 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="F17" s="16" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="F18" s="5"/>
+      <c r="F18" s="17" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="F19" s="5"/>
+      <c r="F19" s="17" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">

--- a/resources/res.xlsx
+++ b/resources/res.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ragarw5/web/new_blog/mlwhiz/static/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3EF1AA4-983A-3748-B870-8D492714DFE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB05171-49ED-3843-BD43-490A14693E19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24560" yWindow="-28340" windowWidth="25600" windowHeight="14160" xr2:uid="{D6A8AAAB-54D6-474D-8E08-A96467793224}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{D6A8AAAB-54D6-474D-8E08-A96467793224}"/>
   </bookViews>
   <sheets>
     <sheet name="Books" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="120">
   <si>
     <t>img</t>
   </si>
@@ -272,15 +272,9 @@
     <t>Online Degrees</t>
   </si>
   <si>
-    <t>Python 3 Programming Specialization</t>
-  </si>
-  <si>
     <t>https://click.linksynergy.com/link?id=lVarvwc5BD0&amp;offerid=467035.13674876714&amp;type=2&amp;murl=https%3A%2F%2Fwww.coursera.org%2Fspecializations%2Fpython-3-programming</t>
   </si>
   <si>
-    <t>Applied Data Science with Python</t>
-  </si>
-  <si>
     <t>https://click.linksynergy.com/link?id=lVarvwc5BD0&amp;offerid=467035.10312607086&amp;type=2&amp;murl=https%3A%2F%2Fwww.coursera.org%2Fspecializations%2Fdata-science-python</t>
   </si>
   <si>
@@ -290,15 +284,9 @@
     <t>https://www.coursera.org/learn/inferential-statistics-intro?ranMID=40328&amp;ranEAID=lVarvwc5BD0&amp;ranSiteID=lVarvwc5BD0-ydEVG6k5kidzLtNqbbVQvQ&amp;siteID=lVarvwc5BD0-ydEVG6k5kidzLtNqbbVQvQ&amp;utm_content=2&amp;utm_medium=partners&amp;utm_source=linkshare&amp;utm_campaign=lVarvwc5BD0</t>
   </si>
   <si>
-    <t>Inferential Statistics</t>
-  </si>
-  <si>
     <t>https://click.linksynergy.com/link?id=lVarvwc5BD0&amp;offerid=467035.11973317656&amp;type=2&amp;murl=https%3A%2F%2Fwww.coursera.org%2Fspecializations%2Faml</t>
   </si>
   <si>
-    <t>Advanced Machine Learning Specialization</t>
-  </si>
-  <si>
     <t>https://www.coursera.org/specializations/deep-learning?ranMID=40328&amp;ranEAID=lVarvwc5BD0&amp;ranSiteID=lVarvwc5BD0-m3SBadPJeg1Z1rWVng39OQ&amp;siteID=lVarvwc5BD0-m3SBadPJeg1Z1rWVng39OQ&amp;utm_content=2&amp;utm_medium=partners&amp;utm_source=linkshare&amp;utm_campaign=lVarvwc5BD0</t>
   </si>
   <si>
@@ -311,9 +299,6 @@
     <t>Getting Started with AWS Machine Learning</t>
   </si>
   <si>
-    <t>Data Structures and Algorithms Specialization</t>
-  </si>
-  <si>
     <t>https://click.linksynergy.com/link?id=lVarvwc5BD0&amp;offerid=759505.1745054360&amp;type=2&amp;murl=https%3A%2F%2Fwww.coursera.org%2Fspecializations%2Fdata-structures-algorithms</t>
   </si>
   <si>
@@ -329,9 +314,6 @@
     <t>Statistics</t>
   </si>
   <si>
-    <t>CS231n: Convolutional Neural Networks for Visual Recognition</t>
-  </si>
-  <si>
     <t>http://cs231n.stanford.edu/2019/</t>
   </si>
   <si>
@@ -341,36 +323,21 @@
     <t>https://www.edx.org/micromasters/uc-san-diegox-data-science?source=aw&amp;awc=6798_1587674792_a6acc79a3e58dcde9ac34945d5a6cb78&amp;utm_source=aw&amp;utm_medium=affiliate_partner&amp;utm_content=text-link&amp;utm_term=633074_mlwhiz</t>
   </si>
   <si>
-    <t>Data Science MicroMasters </t>
-  </si>
-  <si>
     <t>https://www.awin1.com/cread.php?awinmid=6798&amp;awinaffid=633074&amp;clickref=&amp;p=%5B%5Bhttps%3A%2F%2Fwww.edx.org%2Fcourse%2Fbig-data-analytics-using-spark-2%5D%5D</t>
   </si>
   <si>
-    <t>Big Data Analytics Using Spark</t>
-  </si>
-  <si>
     <t>Engineering</t>
   </si>
   <si>
     <t>https://lagunita.stanford.edu/courses/Engineering/CVX101/Winter2014/about</t>
   </si>
   <si>
-    <t>Convex Optimization</t>
-  </si>
-  <si>
     <t>https://ocw.mit.edu/courses/mathematics/18-02sc-multivariable-calculus-fall-2010/</t>
   </si>
   <si>
-    <t>Multivariate Calculus</t>
-  </si>
-  <si>
     <t>http://ocw.mit.edu/courses/mathematics/18-06-linear-algebra-spring-2010/</t>
   </si>
   <si>
-    <t>Linear Algebra</t>
-  </si>
-  <si>
     <t>Mathematics</t>
   </si>
   <si>
@@ -387,6 +354,45 @@
   </si>
   <si>
     <t>One of the world’s first online master’s in machine learning from a world-leading institution.</t>
+  </si>
+  <si>
+    <t>Data Structures and Algorithms Specialization,UC San Diego</t>
+  </si>
+  <si>
+    <t>Python 3 Programming Specialization,University Of Michigan</t>
+  </si>
+  <si>
+    <t>Applied Data Science with Python,University Of Michigan</t>
+  </si>
+  <si>
+    <t>Machine Learning, Stanford University</t>
+  </si>
+  <si>
+    <t>Inferential Statistics, Duke University</t>
+  </si>
+  <si>
+    <t>Advanced Machine Learning Specialization, HSE Russia</t>
+  </si>
+  <si>
+    <t>CS231n: Convolutional Neural Networks for Visual Recognition, Stanford University</t>
+  </si>
+  <si>
+    <t>Introduction to Probability, Harvard University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Science MicroMasters, UC San Diego </t>
+  </si>
+  <si>
+    <t>Big Data Analytics Using Spark, UC San Diego</t>
+  </si>
+  <si>
+    <t>Convex Optimization, Stanford University</t>
+  </si>
+  <si>
+    <t>Multivariate Calculus, MIT</t>
+  </si>
+  <si>
+    <t>Linear Algebra, MIT</t>
   </si>
 </sst>
 </file>
@@ -869,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865B720B-913D-9D43-BB40-0853C4287A07}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="133" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="40.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1054,7 +1060,7 @@
         <v>39</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>4</v>
@@ -1180,13 +1186,13 @@
         <v>67</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>78</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1206,7 +1212,7 @@
         <v>78</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1226,141 +1232,141 @@
         <v>78</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>66</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>66</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>66</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>66</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>66</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>66</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>66</v>
@@ -1371,36 +1377,36 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>66</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>66</v>
@@ -1411,122 +1417,122 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="D29" s="12" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>66</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>66</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>66</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>66</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>66</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>66</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
